--- a/sims_data_1.xlsx
+++ b/sims_data_1.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C2">
@@ -553,7 +553,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C3">
@@ -631,7 +631,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C4">
@@ -719,7 +719,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C5">
@@ -797,7 +797,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C6">
@@ -885,7 +885,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C7">
@@ -973,7 +973,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C8">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C9">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C10">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C11">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C12">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C13">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C14">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C15">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C16">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C17">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C18">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C21">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C23">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C24">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C25">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C26">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C28">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C29">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C30">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C31">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C32">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C33">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C34">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C35">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C36">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C37">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C38">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C39">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C40">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C41">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C42">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C43">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C44">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C45">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C46">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C47">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C48">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C49">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C50">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C51">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C52">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C53">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C54">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C55">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C56">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C57">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C58">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C59">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C66">
@@ -5895,7 +5895,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C67">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C68">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C69">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C71">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C72">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C73">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C74">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C79">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C80">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C81">
@@ -7190,7 +7190,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C82">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C83">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C85">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C86">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C87">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C88">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C89">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C90">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C91">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C92">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C93">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C94">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C95">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C96">
@@ -8475,7 +8475,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C97">
@@ -8563,7 +8563,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C98">
@@ -8641,7 +8641,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C99">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C100">
@@ -8807,7 +8807,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C101">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C102">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C103">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C104">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C105">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C106">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C107">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C109">
@@ -9554,7 +9554,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C110">
@@ -9642,7 +9642,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C111">
@@ -9730,7 +9730,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C112">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C113">
@@ -9906,7 +9906,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C114">
@@ -9994,7 +9994,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C115">
@@ -10082,7 +10082,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C116">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C117">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C118">
@@ -10336,7 +10336,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C119">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C120">
@@ -10486,7 +10486,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C121">
@@ -10574,7 +10574,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C122">
@@ -10642,7 +10642,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C123">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C124">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C125">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C126">
@@ -10934,7 +10934,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C127">
@@ -11022,7 +11022,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C128">
@@ -11110,7 +11110,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C129">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C130">
@@ -11286,7 +11286,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C131">
@@ -11374,7 +11374,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C132">
@@ -11462,7 +11462,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C133">
@@ -11550,7 +11550,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C134">
@@ -11804,7 +11804,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C137">
@@ -11882,7 +11882,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C138">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C139">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C141">
@@ -12209,7 +12209,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C142">
@@ -12287,7 +12287,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C143">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C144">
@@ -12463,7 +12463,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C145">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C146">
@@ -12629,7 +12629,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C147">
@@ -12800,7 +12800,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C149">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C150">
@@ -12976,7 +12976,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C151">
@@ -13054,7 +13054,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C152">
@@ -13142,7 +13142,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C153">
@@ -13313,7 +13313,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C155">
@@ -13401,7 +13401,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C156">
@@ -13489,7 +13489,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C157">
@@ -13577,7 +13577,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C158">
@@ -13665,7 +13665,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C159">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C160">
@@ -13841,7 +13841,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C161">
@@ -13929,7 +13929,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C162">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C163">
@@ -14085,7 +14085,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C164">
@@ -14153,7 +14153,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C165">
@@ -14241,7 +14241,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C166">
@@ -14412,7 +14412,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C168">
@@ -14749,7 +14749,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C172">
@@ -14837,7 +14837,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C173">
@@ -14915,7 +14915,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C174">
@@ -15003,7 +15003,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C175">
@@ -15091,7 +15091,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C176">
@@ -15179,7 +15179,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C177">
@@ -15247,7 +15247,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C178">
@@ -15335,7 +15335,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C179">
@@ -15413,7 +15413,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C180">
@@ -15584,7 +15584,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C182">
@@ -15652,7 +15652,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C183">
@@ -15740,7 +15740,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C184">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C185">
@@ -15896,7 +15896,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C186">
@@ -15974,7 +15974,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C187">
@@ -16062,7 +16062,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C188">
@@ -16223,7 +16223,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C190">
@@ -16311,7 +16311,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C191">
@@ -16389,7 +16389,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C192">
@@ -16477,7 +16477,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C193">
@@ -16565,7 +16565,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C194">
@@ -16653,7 +16653,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C195">
@@ -16741,7 +16741,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C196">
@@ -16829,7 +16829,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C197">
@@ -16917,7 +16917,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C198">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C199">
@@ -17093,7 +17093,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C200">
@@ -17181,7 +17181,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C201">
@@ -17259,7 +17259,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C202">
@@ -17347,7 +17347,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C203">
@@ -17435,7 +17435,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C204">
@@ -17523,7 +17523,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C205">
@@ -17601,7 +17601,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C206">
@@ -17679,7 +17679,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C207">
@@ -17767,7 +17767,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C208">
@@ -17855,7 +17855,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C209">
@@ -17933,7 +17933,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C210">
@@ -18021,7 +18021,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C211">
@@ -18109,7 +18109,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C212">
@@ -18197,7 +18197,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C213">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C215">
@@ -18446,7 +18446,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C216">
@@ -18534,7 +18534,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C217">
@@ -18622,7 +18622,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C218">
@@ -18710,7 +18710,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C219">
@@ -18871,7 +18871,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C221">
@@ -19291,7 +19291,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C226">
@@ -19462,7 +19462,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C228">
@@ -19550,7 +19550,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C229">
@@ -19638,7 +19638,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C230">
@@ -19726,7 +19726,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C231">
@@ -19794,7 +19794,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C232">
@@ -19882,7 +19882,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C233">
@@ -19970,7 +19970,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C234">
@@ -20058,7 +20058,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C235">
@@ -20146,7 +20146,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C236">
@@ -20234,7 +20234,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C237">
@@ -20312,7 +20312,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C238">
@@ -20473,7 +20473,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C240">
@@ -20561,7 +20561,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C241">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C242">
@@ -20737,7 +20737,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C243">
@@ -20825,7 +20825,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C244">
@@ -20893,7 +20893,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C245">
@@ -21024,7 +21024,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C247">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C248">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C249">
@@ -21288,7 +21288,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C250">
@@ -21376,7 +21376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C251">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C252">
@@ -21536,7 +21536,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C253">
@@ -21624,7 +21624,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C254">
@@ -21712,7 +21712,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C255">
@@ -21800,7 +21800,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C256">
@@ -21888,7 +21888,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C257">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C258">
@@ -22303,7 +22303,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C262">
@@ -22381,7 +22381,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C263">
@@ -22469,7 +22469,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C264">
@@ -22557,7 +22557,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C265">
@@ -22645,7 +22645,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C266">
@@ -22733,7 +22733,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C267">
@@ -22811,7 +22811,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C268">
@@ -22879,7 +22879,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C269">
@@ -22957,7 +22957,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C270">
@@ -23035,7 +23035,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C271">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C272">
@@ -23201,7 +23201,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C273">
@@ -23279,7 +23279,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C274">
@@ -23367,7 +23367,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C275">
@@ -23455,7 +23455,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C276">
@@ -23543,7 +23543,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C277">
@@ -23631,7 +23631,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C278">
@@ -23719,7 +23719,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C279">
@@ -23797,7 +23797,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C280">
@@ -23885,7 +23885,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C281">
@@ -23973,7 +23973,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C282">
@@ -24061,7 +24061,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C283">
@@ -24149,7 +24149,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C284">
@@ -24237,7 +24237,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C285">
@@ -24315,7 +24315,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C286">
@@ -24403,7 +24403,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C287">
@@ -24491,7 +24491,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C288">
@@ -24569,7 +24569,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C289">
@@ -24657,7 +24657,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C290">
@@ -24745,7 +24745,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C291">
@@ -24823,7 +24823,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C292">
@@ -24911,7 +24911,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C293">
@@ -24999,7 +24999,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C294">
@@ -25087,7 +25087,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C295">
@@ -25175,7 +25175,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C296">
@@ -25243,7 +25243,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C297">
@@ -25311,7 +25311,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C298">
@@ -25379,7 +25379,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C299">
@@ -25447,7 +25447,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C300">
@@ -25515,7 +25515,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C301">
@@ -25603,7 +25603,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C302">
@@ -25691,7 +25691,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C303">
@@ -25769,7 +25769,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C304">
@@ -25857,7 +25857,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C305">
@@ -25945,7 +25945,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C306">
@@ -26033,7 +26033,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C307">
@@ -26121,7 +26121,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C308">
@@ -26209,7 +26209,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C309">
@@ -26297,7 +26297,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C310">
@@ -26385,7 +26385,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C311">
@@ -26473,7 +26473,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C312">
@@ -26561,7 +26561,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C313">
@@ -26649,7 +26649,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C314">
@@ -26737,7 +26737,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C315">
@@ -26825,7 +26825,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C316">
@@ -26913,7 +26913,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C317">
@@ -27001,7 +27001,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C318">
@@ -27089,7 +27089,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C319">
@@ -27167,7 +27167,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C320">
@@ -27255,7 +27255,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C321">
@@ -27343,7 +27343,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C322">
@@ -27431,7 +27431,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C323">
@@ -27513,7 +27513,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C324">
@@ -27601,7 +27601,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C325">
@@ -27689,7 +27689,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C326">
@@ -27777,7 +27777,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C327">
@@ -27865,7 +27865,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C328">
@@ -27947,7 +27947,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C329">
@@ -28035,7 +28035,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C330">
@@ -28123,7 +28123,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C331">
@@ -28211,7 +28211,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C332">
@@ -28299,7 +28299,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C333">
@@ -28387,7 +28387,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C334">
@@ -28475,7 +28475,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C335">
@@ -28563,7 +28563,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C336">
@@ -28651,7 +28651,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C337">
@@ -28739,7 +28739,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C338">
@@ -28827,7 +28827,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C339">
@@ -28915,7 +28915,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C340">
@@ -29086,7 +29086,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C342">
@@ -29174,7 +29174,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C343">
@@ -29262,7 +29262,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C344">
@@ -29350,7 +29350,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C345">
@@ -29438,7 +29438,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C346">
@@ -29526,7 +29526,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C347">
@@ -29614,7 +29614,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C348">
@@ -29702,7 +29702,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C349">
@@ -29790,7 +29790,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C350">
@@ -29878,7 +29878,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C351">
@@ -29966,7 +29966,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C352">
@@ -30054,7 +30054,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C353">
@@ -30142,7 +30142,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C354">
@@ -30230,7 +30230,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C355">
@@ -30318,7 +30318,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C356">
@@ -30396,7 +30396,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C357">
@@ -30484,7 +30484,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C358">
@@ -30572,7 +30572,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C359">
@@ -30733,7 +30733,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C361">
@@ -30821,7 +30821,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C362">
@@ -30909,7 +30909,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C363">
@@ -30997,7 +30997,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C364">
@@ -31075,7 +31075,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C365">
@@ -31153,7 +31153,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C366">
@@ -31241,7 +31241,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C367">
@@ -31329,7 +31329,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C368">
@@ -31417,7 +31417,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C369">
@@ -31588,7 +31588,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C371">
@@ -31842,7 +31842,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C374">
@@ -31930,7 +31930,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C375">
@@ -32018,7 +32018,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C376">
@@ -32096,7 +32096,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C377">
@@ -32184,7 +32184,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C378">
@@ -32272,7 +32272,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C379">
@@ -32360,7 +32360,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C380">
@@ -32448,7 +32448,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C381">
@@ -32526,7 +32526,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C382">
@@ -32614,7 +32614,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C383">
@@ -32692,7 +32692,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C384">
@@ -32780,7 +32780,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C385">
@@ -32868,7 +32868,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C386">
@@ -32956,7 +32956,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C387">
@@ -33127,7 +33127,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C389">
@@ -33215,7 +33215,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C390">
@@ -33303,7 +33303,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C391">
@@ -33381,7 +33381,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C392">
@@ -33469,7 +33469,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C393">
@@ -33547,7 +33547,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C394">
@@ -33635,7 +33635,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C395">
@@ -33723,7 +33723,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C396">
@@ -33811,7 +33811,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C397">
@@ -33899,7 +33899,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C398">
@@ -33977,7 +33977,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C399">
@@ -34065,7 +34065,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C400">
@@ -34153,7 +34153,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C401">
@@ -34241,7 +34241,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C402">
@@ -34329,7 +34329,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C403">
@@ -34417,7 +34417,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C404">
@@ -34505,7 +34505,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C405">
@@ -34593,7 +34593,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C406">
@@ -34681,7 +34681,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C407">
@@ -34759,7 +34759,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C408">
@@ -34847,7 +34847,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C409">
@@ -34998,7 +34998,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C411">
@@ -35076,7 +35076,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C412">
@@ -35164,7 +35164,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C413">
@@ -35252,7 +35252,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C414">
@@ -35330,7 +35330,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C415">
@@ -35408,7 +35408,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C416">
@@ -35496,7 +35496,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C417">
@@ -35564,7 +35564,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C418">
@@ -35652,7 +35652,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C419">
@@ -35740,7 +35740,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C420">
@@ -35828,7 +35828,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C421">
@@ -35916,7 +35916,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C422">
@@ -36004,7 +36004,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C423">
@@ -36082,7 +36082,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C424">
@@ -36170,7 +36170,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C425">
@@ -36258,7 +36258,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C426">
@@ -36336,7 +36336,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C427">
@@ -36404,7 +36404,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C428">
@@ -36492,7 +36492,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C429">
@@ -36580,7 +36580,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C430">
@@ -36668,7 +36668,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C431">
@@ -36756,7 +36756,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C432">
@@ -36844,7 +36844,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C433">
@@ -36932,7 +36932,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C434">
@@ -37020,7 +37020,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C435">
@@ -37108,7 +37108,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C436">
@@ -37186,7 +37186,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C437">
@@ -37274,7 +37274,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C438">
@@ -37362,7 +37362,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C439">
@@ -37450,7 +37450,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C440">
@@ -37518,7 +37518,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C441">
@@ -37586,7 +37586,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C442">
@@ -37664,7 +37664,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C443">
@@ -37752,7 +37752,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C444">
@@ -37840,7 +37840,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C445">
@@ -38011,7 +38011,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C447">
@@ -38089,7 +38089,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C448">
@@ -38177,7 +38177,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C449">
@@ -38265,7 +38265,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C450">
@@ -38353,7 +38353,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C451">
@@ -38441,7 +38441,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C452">
@@ -38529,7 +38529,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C453">
@@ -38617,7 +38617,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C454">
@@ -38705,7 +38705,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C455">
@@ -38793,7 +38793,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C456">
@@ -38881,7 +38881,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C457">
@@ -38969,7 +38969,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C458">
@@ -39057,7 +39057,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C459">
@@ -39145,7 +39145,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C460">
@@ -39223,7 +39223,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C461">
@@ -39301,7 +39301,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C462">
@@ -39369,7 +39369,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C463">
@@ -39437,7 +39437,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C464">
@@ -39505,7 +39505,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C465">
@@ -39593,7 +39593,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C466">
@@ -39661,7 +39661,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C467">
@@ -39749,7 +39749,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C468">
@@ -39837,7 +39837,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C469">
@@ -39925,7 +39925,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C470">
@@ -40013,7 +40013,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C471">
@@ -40101,7 +40101,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C472">
@@ -40189,7 +40189,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C473">
@@ -40277,7 +40277,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C474">
@@ -40365,7 +40365,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C475">
@@ -40453,7 +40453,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C476">
@@ -40541,7 +40541,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C477">
@@ -40629,7 +40629,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C478">
@@ -40707,7 +40707,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C479">
@@ -40775,7 +40775,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C480">
@@ -40843,7 +40843,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C481">
@@ -40931,7 +40931,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C482">
@@ -40999,7 +40999,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C483">
@@ -41150,7 +41150,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C485">
@@ -41238,7 +41238,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C486">
@@ -41326,7 +41326,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C487">
@@ -41414,7 +41414,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C488">
@@ -41502,7 +41502,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C489">
@@ -41590,7 +41590,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C490">
@@ -41761,7 +41761,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C492">
@@ -41839,7 +41839,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C493">
@@ -41927,7 +41927,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C494">
@@ -42015,7 +42015,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C495">
@@ -42093,7 +42093,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C496">
@@ -42181,7 +42181,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C497">
@@ -42269,7 +42269,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C498">
@@ -42357,7 +42357,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C499">
@@ -42445,7 +42445,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C500">
@@ -42533,7 +42533,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C501">
@@ -42621,7 +42621,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C502">
@@ -42709,7 +42709,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C503">
@@ -42797,7 +42797,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C504">
@@ -42885,7 +42885,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C505">
@@ -42973,7 +42973,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C506">
@@ -43144,7 +43144,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C508">
@@ -43222,7 +43222,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C509">
@@ -43310,7 +43310,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C510">
@@ -43398,7 +43398,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C511">
@@ -43466,7 +43466,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C512">
@@ -43554,7 +43554,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C513">
@@ -43642,7 +43642,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C514">
@@ -43720,7 +43720,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C515">
@@ -43808,7 +43808,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C516">
@@ -43896,7 +43896,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C517">
@@ -43984,7 +43984,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C518">
@@ -44072,7 +44072,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C519">
@@ -44160,7 +44160,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C520">
@@ -44248,7 +44248,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C521">
@@ -44336,7 +44336,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C522">
@@ -44424,7 +44424,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C523">
@@ -44512,7 +44512,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C524">
@@ -44600,7 +44600,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C525">
@@ -44688,7 +44688,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C526">
@@ -44766,7 +44766,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C527">
@@ -44854,7 +44854,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C528">
@@ -44942,7 +44942,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C529">
@@ -45030,7 +45030,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C530">
@@ -45118,7 +45118,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C531">
@@ -45206,7 +45206,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C532">
@@ -45294,7 +45294,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C533">
@@ -45382,7 +45382,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C534">
@@ -45460,7 +45460,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C535">
@@ -45548,7 +45548,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C536">
@@ -45636,7 +45636,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C537">
@@ -45807,7 +45807,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C539">
@@ -45895,7 +45895,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C540">
@@ -45983,7 +45983,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C541">
@@ -46061,7 +46061,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C542">
@@ -46149,7 +46149,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C543">
@@ -46237,7 +46237,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C544">
@@ -46325,7 +46325,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C545">
@@ -46403,7 +46403,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C546">
@@ -46491,7 +46491,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C547">
@@ -46579,7 +46579,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C548">
@@ -46667,7 +46667,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C549">
@@ -46755,7 +46755,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C550">
@@ -46843,7 +46843,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C551">
@@ -46931,7 +46931,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C552">
@@ -47019,7 +47019,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C553">
@@ -47107,7 +47107,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C554">
@@ -47195,7 +47195,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C555">
@@ -47273,7 +47273,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C556">
@@ -47361,7 +47361,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C557">
@@ -47449,7 +47449,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C558">
@@ -47610,7 +47610,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C560">
@@ -47698,7 +47698,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C561">
@@ -47786,7 +47786,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C562">
@@ -47874,7 +47874,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C563">
@@ -47962,7 +47962,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C564">
@@ -48050,7 +48050,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C565">
@@ -48138,7 +48138,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C566">
@@ -48216,7 +48216,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C567">
@@ -48294,7 +48294,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C568">
@@ -48372,7 +48372,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C569">
@@ -48460,7 +48460,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C570">
@@ -48548,7 +48548,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C571">
@@ -48636,7 +48636,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C572">
@@ -48724,7 +48724,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C573">
@@ -48812,7 +48812,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C574">
@@ -48890,7 +48890,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C575">
@@ -48978,7 +48978,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C576">
@@ -49066,7 +49066,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C577">
@@ -49154,7 +49154,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C578">
@@ -49242,7 +49242,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C579">
@@ -49330,7 +49330,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C580">
@@ -49418,7 +49418,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C581">
@@ -49506,7 +49506,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C582">
@@ -49594,7 +49594,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C583">
@@ -49682,7 +49682,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C584">
@@ -49770,7 +49770,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C585">
@@ -49858,7 +49858,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C586">
@@ -49936,7 +49936,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C587">
@@ -50024,7 +50024,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C588">
@@ -50112,7 +50112,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C589">
@@ -50200,7 +50200,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C590">
@@ -50278,7 +50278,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C591">
@@ -50366,7 +50366,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C592">
@@ -50454,7 +50454,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C593">
@@ -50542,7 +50542,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C594">
@@ -50630,7 +50630,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C595">
@@ -50718,7 +50718,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C596">
@@ -50806,7 +50806,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C597">
@@ -50894,7 +50894,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C598">
@@ -50982,7 +50982,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C599">
@@ -51070,7 +51070,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C600">
@@ -51158,7 +51158,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C601">
@@ -51246,7 +51246,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C602">
@@ -51334,7 +51334,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C603">
@@ -51412,7 +51412,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C604">
@@ -51500,7 +51500,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C605">
@@ -51578,7 +51578,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C606">
@@ -51666,7 +51666,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C607">
@@ -51744,7 +51744,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C608">
@@ -51832,7 +51832,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C609">
@@ -51920,7 +51920,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C610">
@@ -52002,7 +52002,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C611">
@@ -52090,7 +52090,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C612">
@@ -52178,7 +52178,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C613">
@@ -52266,7 +52266,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C614">
@@ -52344,7 +52344,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C615">
@@ -52432,7 +52432,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C616">
@@ -52520,7 +52520,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C617">
@@ -52608,7 +52608,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C618">
@@ -52686,7 +52686,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C619">
@@ -52764,7 +52764,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C620">
@@ -52842,7 +52842,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C621">
@@ -52920,7 +52920,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C622">
@@ -52998,7 +52998,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C623">
@@ -53086,7 +53086,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C624">
@@ -53174,7 +53174,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C625">
@@ -53262,7 +53262,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C626">
@@ -53350,7 +53350,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C627">
@@ -53438,7 +53438,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C628">
@@ -53526,7 +53526,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C629">
@@ -53614,7 +53614,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C630">
@@ -53692,7 +53692,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C631">
@@ -53770,7 +53770,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C632">
@@ -53858,7 +53858,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C633">
@@ -53940,7 +53940,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C634">
@@ -54018,7 +54018,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C635">
@@ -54086,7 +54086,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C636">
@@ -54164,7 +54164,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C637">
@@ -54242,7 +54242,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C638">
@@ -54330,7 +54330,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C639">
@@ -54418,7 +54418,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C640">
@@ -54496,7 +54496,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C641">
@@ -54584,7 +54584,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C642">
@@ -54662,7 +54662,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C643">
@@ -54740,7 +54740,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C644">
@@ -54818,7 +54818,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C645">
@@ -54906,7 +54906,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C646">
@@ -54994,7 +54994,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C647">
@@ -55082,7 +55082,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C648">
@@ -55170,7 +55170,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C649">
@@ -55248,7 +55248,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C650">
@@ -55336,7 +55336,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C651">
@@ -55424,7 +55424,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C652">
@@ -55512,7 +55512,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C653">
@@ -55590,7 +55590,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C654">
@@ -55668,7 +55668,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C655">
@@ -55756,7 +55756,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C656">
@@ -55844,7 +55844,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C657">
@@ -55922,7 +55922,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C658">
@@ -56010,7 +56010,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C659">
@@ -56088,7 +56088,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C660">

--- a/sims_data_1.xlsx
+++ b/sims_data_1.xlsx
@@ -833,7 +833,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1263,12 +1263,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1351,12 +1351,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1693,12 +1693,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2284,12 +2284,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3031,12 +3031,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4017,12 +4017,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4613,12 +4613,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4935,12 +4935,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -5277,12 +5277,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5360,12 +5360,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5443,12 +5443,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5599,12 +5599,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5931,12 +5931,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -6107,12 +6107,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6708,12 +6708,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6791,12 +6791,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -7485,12 +7485,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -7573,12 +7573,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -7661,12 +7661,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -8257,12 +8257,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -8345,12 +8345,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -8755,12 +8755,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -9019,12 +9019,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -9414,12 +9414,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -9502,12 +9502,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -9590,12 +9590,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -9683,7 +9683,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -9766,12 +9766,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -10284,7 +10284,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10372,12 +10372,12 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -11146,12 +11146,12 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -11234,12 +11234,12 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -11327,7 +11327,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -11498,7 +11498,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -11669,12 +11669,12 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -11752,12 +11752,12 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -11918,12 +11918,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -12069,12 +12069,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12411,12 +12411,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -12748,12 +12748,12 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -12836,12 +12836,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -13261,7 +13261,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13349,12 +13349,12 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13525,7 +13525,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13613,12 +13613,12 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -13789,12 +13789,12 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -14277,12 +14277,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -14360,12 +14360,12 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -14785,12 +14785,12 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -14951,12 +14951,12 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -15449,12 +15449,12 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -15532,12 +15532,12 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -15688,12 +15688,12 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -15776,12 +15776,12 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -16010,12 +16010,12 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -16171,12 +16171,12 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -16259,12 +16259,12 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -16425,12 +16425,12 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -16513,7 +16513,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -16782,7 +16782,7 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -16953,12 +16953,12 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -17041,12 +17041,12 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -17129,12 +17129,12 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -17383,7 +17383,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17471,12 +17471,12 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -17803,12 +17803,12 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -18057,7 +18057,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18145,12 +18145,12 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -18394,12 +18394,12 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -18482,12 +18482,12 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -18663,7 +18663,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -18751,7 +18751,7 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -19073,12 +19073,12 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -19156,7 +19156,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19410,7 +19410,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19586,12 +19586,12 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -19830,12 +19830,12 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -20421,12 +20421,12 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -20509,12 +20509,12 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -20690,7 +20690,7 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -20773,12 +20773,12 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -21324,12 +21324,12 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -21572,12 +21572,12 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -21665,7 +21665,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -21748,12 +21748,12 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -22012,12 +22012,12 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -22095,12 +22095,12 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -22417,12 +22417,12 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -22505,12 +22505,12 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -23315,12 +23315,12 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -24097,7 +24097,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24185,7 +24185,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24693,12 +24693,12 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -24859,12 +24859,12 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -24947,12 +24947,12 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -25035,12 +25035,12 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -25123,12 +25123,12 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -25805,7 +25805,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -25893,12 +25893,12 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -26069,12 +26069,12 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -26157,7 +26157,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26245,12 +26245,12 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -26333,12 +26333,12 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -26597,12 +26597,12 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -26685,12 +26685,12 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -26773,12 +26773,12 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -26861,12 +26861,12 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -27203,7 +27203,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27291,12 +27291,12 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -27379,12 +27379,12 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -27549,7 +27549,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -27818,7 +27818,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -27901,12 +27901,12 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -27983,12 +27983,12 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -28516,7 +28516,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -28951,12 +28951,12 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -29034,12 +29034,12 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -29386,12 +29386,12 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -29474,12 +29474,12 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -29650,12 +29650,12 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -29738,12 +29738,12 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -29826,12 +29826,12 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -29914,7 +29914,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30090,12 +30090,12 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -30266,12 +30266,12 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -30432,12 +30432,12 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -30769,12 +30769,12 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -30857,7 +30857,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -31277,12 +31277,12 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -31365,7 +31365,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -31453,12 +31453,12 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -31536,12 +31536,12 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -31624,12 +31624,12 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -31707,7 +31707,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -31790,7 +31790,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -32220,12 +32220,12 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -32308,7 +32308,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32992,7 +32992,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -33163,12 +33163,12 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -33417,7 +33417,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33583,12 +33583,12 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -33759,7 +33759,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -33847,12 +33847,12 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -34101,12 +34101,12 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -34277,7 +34277,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34365,12 +34365,12 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -34453,12 +34453,12 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -34541,7 +34541,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -34629,12 +34629,12 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -34795,7 +34795,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -35112,12 +35112,12 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -35444,12 +35444,12 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -35600,12 +35600,12 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -35688,7 +35688,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -35776,12 +35776,12 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -35952,12 +35952,12 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -36211,7 +36211,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -36709,7 +36709,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -37310,12 +37310,12 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -37398,12 +37398,12 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -37700,12 +37700,12 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -37788,12 +37788,12 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -37876,12 +37876,12 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -38301,12 +38301,12 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -38389,12 +38389,12 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -38477,12 +38477,12 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -38565,12 +38565,12 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -38741,12 +38741,12 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -38829,12 +38829,12 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -38922,7 +38922,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -39093,7 +39093,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39541,7 +39541,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -39697,12 +39697,12 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -39873,12 +39873,12 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -39961,7 +39961,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40049,12 +40049,12 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -40137,12 +40137,12 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -40313,12 +40313,12 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -40401,7 +40401,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -40489,12 +40489,12 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -40884,7 +40884,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -41098,7 +41098,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41450,12 +41450,12 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -41626,12 +41626,12 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -41709,12 +41709,12 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -42129,12 +42129,12 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -42217,12 +42217,12 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -42305,12 +42305,12 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -42662,7 +42662,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -42833,12 +42833,12 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
@@ -43014,7 +43014,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -43756,12 +43756,12 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -43844,12 +43844,12 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -43932,12 +43932,12 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -44020,12 +44020,12 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -44548,12 +44548,12 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
@@ -44636,12 +44636,12 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -44978,12 +44978,12 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -45154,12 +45154,12 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -45242,12 +45242,12 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -45496,12 +45496,12 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -45755,7 +45755,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -45931,12 +45931,12 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
@@ -46439,12 +46439,12 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -46615,12 +46615,12 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -46879,12 +46879,12 @@
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
@@ -47055,12 +47055,12 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
@@ -47143,12 +47143,12 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
@@ -47309,12 +47309,12 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
@@ -47397,12 +47397,12 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
@@ -47822,12 +47822,12 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
@@ -47910,12 +47910,12 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
@@ -47998,12 +47998,12 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
@@ -48086,12 +48086,12 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
@@ -48672,12 +48672,12 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
@@ -48760,12 +48760,12 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
@@ -49102,12 +49102,12 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
@@ -49190,12 +49190,12 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
@@ -49278,7 +49278,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -49366,12 +49366,12 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
@@ -49972,12 +49972,12 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
@@ -50060,12 +50060,12 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
@@ -50314,12 +50314,12 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
@@ -50490,12 +50490,12 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -50578,12 +50578,12 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
@@ -50754,12 +50754,12 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
@@ -50842,12 +50842,12 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
@@ -50930,12 +50930,12 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
@@ -51018,12 +51018,12 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
@@ -51448,7 +51448,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -51614,12 +51614,12 @@
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
@@ -51780,12 +51780,12 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
@@ -52038,7 +52038,7 @@
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -52219,7 +52219,7 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
@@ -52380,12 +52380,12 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
@@ -52468,7 +52468,7 @@
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
@@ -53122,12 +53122,12 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
@@ -53210,12 +53210,12 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
@@ -53298,12 +53298,12 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
@@ -53386,12 +53386,12 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
@@ -53474,12 +53474,12 @@
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
@@ -53894,12 +53894,12 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
@@ -54366,12 +54366,12 @@
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
@@ -54532,12 +54532,12 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
@@ -54942,12 +54942,12 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
@@ -55030,12 +55030,12 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
@@ -55118,7 +55118,7 @@
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -55284,7 +55284,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -55460,12 +55460,12 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
@@ -55704,12 +55704,12 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
